--- a/tutorial/option/oncoplot_options_v1.xlsx
+++ b/tutorial/option/oncoplot_options_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysmed\AppData\Roaming\MobaXterm\slash\RemoteFiles\30741832_2_120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysmed\AppData\Roaming\MobaXterm\slash\RemoteFiles\30741832_2_131\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CF1B64-C67D-4EA1-9F87-67FC286B3E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4FDA15-1BE1-4F1D-BE57-ECAD91E6B18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
   <si>
     <t>Options</t>
   </si>
@@ -396,6 +396,22 @@
   </si>
   <si>
     <t>cadetblue1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_cluster_order</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1215,18 +1231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1235,6 +1239,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1950,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1991,22 +2007,22 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="66" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
@@ -2015,24 +2031,24 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="67"/>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -2041,7 +2057,7 @@
       <c r="B4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="67"/>
       <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
@@ -2071,7 +2087,7 @@
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="67"/>
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
@@ -2101,7 +2117,7 @@
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="67"/>
       <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
@@ -2131,7 +2147,7 @@
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="67"/>
       <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
@@ -2155,7 +2171,7 @@
       <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="67"/>
       <c r="E8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2179,7 +2195,7 @@
       <c r="B9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="67"/>
       <c r="E9" s="8" t="s">
         <v>40</v>
       </c>
@@ -2203,7 +2219,7 @@
       <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="71"/>
+      <c r="C10" s="67"/>
       <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
@@ -2225,7 +2241,7 @@
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="67"/>
       <c r="E11" s="8" t="s">
         <v>47</v>
       </c>
@@ -2247,7 +2263,7 @@
       <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="67"/>
       <c r="E12" s="8" t="s">
         <v>50</v>
       </c>
@@ -2269,7 +2285,7 @@
       <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="67"/>
       <c r="E13" s="8" t="s">
         <v>53</v>
       </c>
@@ -2291,7 +2307,7 @@
       <c r="B14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="67"/>
       <c r="E14" s="27" t="s">
         <v>56</v>
       </c>
@@ -2313,7 +2329,7 @@
       <c r="B15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="71"/>
+      <c r="C15" s="67"/>
     </row>
     <row r="16" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
       <c r="A16" s="5" t="s">
@@ -2322,11 +2338,11 @@
       <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="E16" s="69" t="s">
+      <c r="C16" s="67"/>
+      <c r="E16" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="69"/>
+      <c r="F16" s="72"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="5" t="s">
@@ -2335,7 +2351,7 @@
       <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="68"/>
       <c r="E17" s="36" t="s">
         <v>63</v>
       </c>
@@ -2356,7 +2372,7 @@
       <c r="B18" s="6">
         <v>0.5</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="39" t="s">
@@ -2376,11 +2392,10 @@
       <c r="A19" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="35" t="str">
-        <f>"TRUE"</f>
-        <v>TRUE</v>
-      </c>
-      <c r="C19" s="71"/>
+      <c r="B19" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="67"/>
       <c r="E19" s="42" t="s">
         <v>67</v>
       </c>
@@ -2398,93 +2413,90 @@
       <c r="A20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="35" t="str">
-        <f>"TRUE"</f>
-        <v>TRUE</v>
-      </c>
-      <c r="C20" s="71"/>
+      <c r="B20" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="67"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" customHeight="1">
       <c r="A21" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="35" t="str">
-        <f>"TRUE"</f>
-        <v>TRUE</v>
-      </c>
-      <c r="C21" s="71"/>
+      <c r="B21" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="67"/>
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1">
       <c r="A22" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="35" t="str">
-        <f>"FALSE"</f>
-        <v>FALSE</v>
-      </c>
-      <c r="C22" s="71"/>
+      <c r="B22" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="67"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1">
       <c r="A23" s="46" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="71"/>
+        <v>89</v>
+      </c>
+      <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="67"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A25" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B25" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="67"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A26" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="71"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A25" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="71"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="50" t="s">
+      <c r="C26" s="67"/>
+    </row>
+    <row r="27" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A27" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="71"/>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A27" s="51" t="s">
+      <c r="C27" s="67"/>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A28" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B28" s="52">
         <v>20</v>
       </c>
-      <c r="C27" s="72"/>
-    </row>
-    <row r="28" spans="1:14" hidden="1">
-      <c r="A28" s="53" t="s">
+      <c r="C28" s="68"/>
+    </row>
+    <row r="29" spans="1:14" hidden="1">
+      <c r="A29" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="54" t="str">
+      <c r="B29" s="54" t="str">
         <f>IF(F4="","NA",F4)</f>
         <v>Group</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1">
-      <c r="A29" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="6" t="str">
-        <f>IF(G4="","NA",G4)</f>
-        <v>Response</v>
       </c>
     </row>
     <row r="30" spans="1:14" hidden="1">
@@ -2492,8 +2504,8 @@
         <v>76</v>
       </c>
       <c r="B30" s="6" t="str">
-        <f>IF(H4="","NA",H4)</f>
-        <v>NA</v>
+        <f>IF(G4="","NA",G4)</f>
+        <v>Response</v>
       </c>
     </row>
     <row r="31" spans="1:14" hidden="1">
@@ -2501,7 +2513,7 @@
         <v>76</v>
       </c>
       <c r="B31" s="6" t="str">
-        <f>IF(I4="","NA",I4)</f>
+        <f>IF(H4="","NA",H4)</f>
         <v>NA</v>
       </c>
     </row>
@@ -2510,17 +2522,17 @@
         <v>76</v>
       </c>
       <c r="B32" s="6" t="str">
+        <f>IF(I4="","NA",I4)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1">
+      <c r="A33" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="6" t="str">
         <f>IF(J4="","NA",J4)</f>
         <v>NA</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1">
-      <c r="A33" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="6" t="str">
-        <f>IF(K4="","NA",K4)</f>
-        <v>Age</v>
       </c>
     </row>
     <row r="34" spans="1:2" hidden="1">
@@ -2528,8 +2540,8 @@
         <v>77</v>
       </c>
       <c r="B34" s="6" t="str">
-        <f>IF(L4="","NA",L4)</f>
-        <v>BMI</v>
+        <f>IF(K4="","NA",K4)</f>
+        <v>Age</v>
       </c>
     </row>
     <row r="35" spans="1:2" hidden="1">
@@ -2537,8 +2549,8 @@
         <v>77</v>
       </c>
       <c r="B35" s="6" t="str">
-        <f>IF(M4="","NA",M4)</f>
-        <v>NA</v>
+        <f>IF(L4="","NA",L4)</f>
+        <v>BMI</v>
       </c>
     </row>
     <row r="36" spans="1:2" hidden="1">
@@ -2546,7 +2558,7 @@
         <v>77</v>
       </c>
       <c r="B36" s="6" t="str">
-        <f>IF(N4="","NA",N4)</f>
+        <f>IF(M4="","NA",M4)</f>
         <v>NA</v>
       </c>
     </row>
@@ -2555,17 +2567,17 @@
         <v>77</v>
       </c>
       <c r="B37" s="6" t="str">
+        <f>IF(N4="","NA",N4)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1">
+      <c r="A38" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="6" t="str">
         <f>IF(O4="","NA",O4)</f>
         <v>NA</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1">
-      <c r="A38" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="6" t="str">
-        <f t="shared" ref="B38:B47" si="0">IF(F5="","NA",F5)</f>
-        <v>cadetblue1</v>
       </c>
     </row>
     <row r="39" spans="1:2" hidden="1">
@@ -2573,19 +2585,19 @@
         <v>78</v>
       </c>
       <c r="B39" s="6" t="str">
+        <f t="shared" ref="B39:B48" si="0">IF(F5="","NA",F5)</f>
+        <v>cadetblue1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1">
+      <c r="A40" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>dodgerblue</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1">
-      <c r="A40" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-    </row>
     <row r="41" spans="1:2" hidden="1">
       <c r="A41" s="57" t="s">
         <v>78</v>
@@ -2654,8 +2666,8 @@
         <v>78</v>
       </c>
       <c r="B48" s="6" t="str">
-        <f t="shared" ref="B48:B57" si="1">IF(G5="","NA",G5)</f>
-        <v>coral</v>
+        <f t="shared" si="0"/>
+        <v>NA</v>
       </c>
     </row>
     <row r="49" spans="1:2" hidden="1">
@@ -2663,46 +2675,46 @@
         <v>78</v>
       </c>
       <c r="B49" s="6" t="str">
+        <f t="shared" ref="B49:B58" si="1">IF(G5="","NA",G5)</f>
+        <v>coral</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1">
+      <c r="A50" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="6" t="str">
         <f t="shared" si="1"/>
         <v>lightpink</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1">
-      <c r="A50" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="6" t="str">
+    <row r="51" spans="1:2" hidden="1">
+      <c r="A51" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="6" t="str">
         <f t="shared" si="1"/>
         <v>mediumpurple1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1">
-      <c r="A51" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="6" t="str">
+    <row r="52" spans="1:2" hidden="1">
+      <c r="A52" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="6" t="str">
         <f t="shared" si="1"/>
         <v>peachpuff</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1">
-      <c r="A52" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="6" t="str">
+    <row r="53" spans="1:2" hidden="1">
+      <c r="A53" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="6" t="str">
         <f t="shared" si="1"/>
         <v>indianred1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1">
-      <c r="A53" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
     <row r="54" spans="1:2" hidden="1">
       <c r="A54" s="57" t="s">
         <v>78</v>
@@ -2744,7 +2756,7 @@
         <v>78</v>
       </c>
       <c r="B58" s="6" t="str">
-        <f t="shared" ref="B58:B67" si="2">IF(H5="","NA",H5)</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
     </row>
@@ -2753,7 +2765,7 @@
         <v>78</v>
       </c>
       <c r="B59" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B59:B68" si="2">IF(H5="","NA",H5)</f>
         <v>NA</v>
       </c>
     </row>
@@ -2834,7 +2846,7 @@
         <v>78</v>
       </c>
       <c r="B68" s="6" t="str">
-        <f t="shared" ref="B68:B77" si="3">IF(I5="","NA",I5)</f>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
     </row>
@@ -2843,7 +2855,7 @@
         <v>78</v>
       </c>
       <c r="B69" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B69:B78" si="3">IF(I5="","NA",I5)</f>
         <v>NA</v>
       </c>
     </row>
@@ -2924,7 +2936,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="6" t="str">
-        <f t="shared" ref="B78:B87" si="4">IF(J5="","NA",J5)</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
     </row>
@@ -2933,7 +2945,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B79:B88" si="4">IF(J5="","NA",J5)</f>
         <v>NA</v>
       </c>
     </row>
@@ -3010,56 +3022,56 @@
       </c>
     </row>
     <row r="88" spans="1:2" hidden="1">
-      <c r="A88" s="58" t="s">
+      <c r="A88" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B88" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1">
+      <c r="A89" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="6" t="str">
         <f>IF(K5="","NA",K5)</f>
         <v>lemonchiffon</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1">
-      <c r="A89" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="6" t="str">
+    <row r="90" spans="1:2" hidden="1">
+      <c r="A90" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="6" t="str">
         <f>IF(K6="","NA",K6)</f>
         <v>lightgoldenrod</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1">
-      <c r="A90" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90" s="6" t="str">
+    <row r="91" spans="1:2" hidden="1">
+      <c r="A91" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="6" t="str">
         <f>IF(L5="","NA",L5)</f>
         <v>lavenderblush</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1">
-      <c r="A91" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="6" t="str">
+    <row r="92" spans="1:2" hidden="1">
+      <c r="A92" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="6" t="str">
         <f>IF(L6="","NA",L6)</f>
         <v>lightpink</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1">
-      <c r="A92" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="6" t="str">
-        <f>IF(M5="","NA",M5)</f>
-        <v>NA</v>
-      </c>
-    </row>
     <row r="93" spans="1:2" hidden="1">
       <c r="A93" s="58" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="6" t="str">
-        <f>IF(M6="","NA",M6)</f>
+        <f>IF(M5="","NA",M5)</f>
         <v>NA</v>
       </c>
     </row>
@@ -3068,7 +3080,7 @@
         <v>78</v>
       </c>
       <c r="B94" s="6" t="str">
-        <f>IF(N5="","NA",N5)</f>
+        <f>IF(M6="","NA",M6)</f>
         <v>NA</v>
       </c>
     </row>
@@ -3077,7 +3089,7 @@
         <v>78</v>
       </c>
       <c r="B95" s="6" t="str">
-        <f>IF(N6="","NA",N6)</f>
+        <f>IF(N5="","NA",N5)</f>
         <v>NA</v>
       </c>
     </row>
@@ -3086,7 +3098,7 @@
         <v>78</v>
       </c>
       <c r="B96" s="6" t="str">
-        <f>IF(O5="","NA",O5)</f>
+        <f>IF(N6="","NA",N6)</f>
         <v>NA</v>
       </c>
     </row>
@@ -3095,22 +3107,31 @@
         <v>78</v>
       </c>
       <c r="B97" s="6" t="str">
+        <f>IF(O5="","NA",O5)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1">
+      <c r="A98" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="6" t="str">
         <f>IF(O6="","NA",O6)</f>
         <v>NA</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C18:C28"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C18:C27"/>
     <mergeCell ref="C2:C17"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&quot;All&quot; or int" sqref="F5:G6 G7:G9 B27" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&quot;All&quot; or int" sqref="F5:G6 G7:G9 B28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3118,23 +3139,16 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&lt;default&gt; FALSE _x000a_if you want to cluster your samples, put the column name in your clinical annotation" sqref="B23" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&lt;default&gt; no_x000a_if you want to cluster your samples, put the column name in your clinical annotation" sqref="B23" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Put your plot title" sqref="B27" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Put your plot title" sqref="B26" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="&quot;All&quot; or int" sqref="B29 B39:B98" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="&quot;All&quot; or int" sqref="B28 B38:B97" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Put your plot title" sqref="B29:B37" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TRUE or FALSE" sqref="B19:B22" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Put your plot title" sqref="B30:B38" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3142,13 +3156,20 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&lt;default&gt; no_x000a_if you want to clustered group order, put the column name in your customed order. ex) Missing,PD,SD,PR" sqref="B24" xr:uid="{E9E0389C-475A-4C6D-B13C-4F1F5727E365}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="yes or no" xr:uid="{00000000-0002-0000-0000-000007000000}">
+          <x14:formula1>
+            <xm:f>options!$E$3:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B22</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>options!$G$3:$G$4</xm:f>
@@ -3156,7 +3177,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B24</xm:sqref>
+          <xm:sqref>B25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
@@ -3165,7 +3186,25 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B25</xm:sqref>
+          <xm:sqref>B26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="yes or no" xr:uid="{A22D53FD-8560-4E48-B061-B9D2F4D61607}">
+          <x14:formula1>
+            <xm:f>options!$B$3:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="yes or no" xr:uid="{6B4BDAC5-542F-472C-9739-251DBAA79F23}">
+          <x14:formula1>
+            <xm:f>options!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="yes or no" xr:uid="{A775DA1A-F4E6-447F-AC89-5AE462A05277}">
+          <x14:formula1>
+            <xm:f>options!$D$3:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3175,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:W81"/>
+  <dimension ref="B2:W81"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -3194,8 +3233,7 @@
     <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" hidden="1"/>
-    <row r="2" spans="2:23" hidden="1">
+    <row r="2" spans="2:23">
       <c r="B2" s="59" t="s">
         <v>62</v>
       </c>
@@ -3218,26 +3256,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:23" hidden="1">
-      <c r="B3" s="60" t="str">
-        <f>"TRUE"</f>
-        <v>TRUE</v>
-      </c>
-      <c r="C3" s="60" t="str">
-        <f>"TRUE"</f>
-        <v>TRUE</v>
-      </c>
-      <c r="D3" s="60" t="str">
-        <f>"TRUE"</f>
-        <v>TRUE</v>
-      </c>
-      <c r="E3" s="60" t="str">
-        <f>"TRUE"</f>
-        <v>TRUE</v>
-      </c>
-      <c r="F3" s="60" t="str">
-        <f>"FALSE"</f>
-        <v>FALSE</v>
+    <row r="3" spans="2:23">
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>71</v>
@@ -3246,22 +3279,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:23" hidden="1">
-      <c r="B4" s="60" t="str">
-        <f>"FALSE"</f>
-        <v>FALSE</v>
-      </c>
-      <c r="C4" s="60" t="str">
-        <f>"FALSE"</f>
-        <v>FALSE</v>
-      </c>
-      <c r="D4" s="60" t="str">
-        <f>"FALSE"</f>
-        <v>FALSE</v>
-      </c>
-      <c r="E4" s="60" t="str">
-        <f>"FALSE"</f>
-        <v>FALSE</v>
+    <row r="4" spans="2:23">
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
